--- a/data/nd-overarch.xlsx
+++ b/data/nd-overarch.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aheavey/github-local/dune-us-nd-pdr/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41822FFE-2EF1-C747-B981-FB9B7284DCD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="-49980" yWindow="-16380" windowWidth="46940" windowHeight="23720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="TableDetails" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TableDetails" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -202,16 +207,7 @@
     <t>constrain-xsec-model</t>
   </si>
   <si>
-    <t>Systematic errors from cross section modeling couple the FD response to the neutrino energy/flavor</t>
-  </si>
-  <si>
-    <t>Systematic errors from cross section modeling couple the FD response to the neutrino energy/flavor.</t>
-  </si>
-  <si>
     <t>The FD response couples the modelling of outgoing particles in nu-Ar interactions in terms of the mulitplicity, topology, and kinematics, to the ability to reconstruct these  particles. The near detector must sufficiently measure and constrain the uncertainties in this modelling to minimize their impact on the oscillation measurement.</t>
-  </si>
-  <si>
-    <t>The FD response couples the modelling of outgoing particles in $\nu$-Ar interactions in terms of the mulitplicity, topology, and kinematics, to the ability to reconstruct these  particles. The near detector must sufficiently measure and constrain the uncertainties in this modelling to minimize their impact on the oscillation measurement.</t>
   </si>
   <si>
     <t>133: FD measurements not limited by ND {LINK id=133 uri=https://cdv-doors.fnal.gov:9443/rm/resources/_A4Lnv2jaEeiaKd-n7QCukA}</t>
@@ -243,9 +239,6 @@
   </si>
   <si>
     <t>The ab initio prediction of the neutrino flux is based on Monte Carlo simulation which has uncertainties arising from particle production, beam optics, operational variation, etc. that must be verified and constrained by the near detector. Secondary components of the flux give rise to irreducible backgrounds in the FD which must be constrained</t>
-  </si>
-  <si>
-    <t>The ab initio prediction of the neutrino flux is based on Monte Carlo simulation which has uncertainties arising from particle production, beam optics, operational variation, etc. that must be verified and constrained by the near detector. Secondary components of the flux give rise to irreducible backgrounds in the FD which must be constrained.</t>
   </si>
   <si>
     <t>349: Muon Neutrino and Anti-Neutrino Flux measurements {LINK id=349 uri=https://cdv-doors.fnal.gov:9443/rm/resources/_A75qFmjaEeiaKd-n7QCukA}</t>
@@ -345,26 +338,61 @@
     <t>ND-O0, 133,166</t>
   </si>
   <si>
-    <t>METADATA</t>
-  </si>
-  <si>
-    <t>Exported Artifact IDs=2475|2474|2471|2472|2473|2469|2470</t>
-  </si>
-  <si>
-    <t>Export Project Area=https://cdv-doors.fnal.gov:9443/rm/rm-projects/_8ggc0GjZEeiaKd-n7QCukA/components/_8u1zwGjZEeiaKd-n7QCukA</t>
-  </si>
-  <si>
-    <t>Export Configuration=https://cdv-doors.fnal.gov:9443/rm/cm/stream/_8vbpoGjZEeiaKd-n7QCukA</t>
-  </si>
-  <si>
-    <t>Export Locale=en</t>
+    <t>The ND operates in a significantly different environment from the FD, with  higher cosmic ray rates as well as pile up of beam-related activity.</t>
+  </si>
+  <si>
+    <t>The near detector must sufficiently measure and constrain the uncertainties in the systematic errors from cross section modelling to minimize their impact on the oscillation measurement.</t>
+  </si>
+  <si>
+    <t>Required by the  \dshort{lbl} analysis.</t>
+  </si>
+  <si>
+    <t>Primary purpose of ND</t>
+  </si>
+  <si>
+    <t>Identifying variations of neutrino flux and spectrum from the beam promptly will minimize any compromised beam delivery.</t>
+  </si>
+  <si>
+    <t>The FD response couples the modelling of outgoing particles in $\nu$-Ar interactions in terms of mulitplicity, topology, and kinematics, to the ability to reconstruct these particles.</t>
+  </si>
+  <si>
+    <t>The flux prediction has uncertainties arising from particle production, beam optics, operational variation, etc. Secondary components of the flux give rise to irreducible backgrounds in the FD.</t>
+  </si>
+  <si>
+    <t>Variations in neutrino flux and spectrum from \dshort{duneprism} or horn currents could otherwise lead to degenerate tunings that bias the FD predictions and the resulting oscillation parameters.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Original; this would change too:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Systematic errors from cross section modeling couple the FD response to the neutrino energy/flavor.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -377,13 +405,31 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -395,118 +441,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="15"/>
-    <cellStyle name="Currency" xfId="16"/>
-    <cellStyle name="Currency [0]" xfId="17"/>
-    <cellStyle name="Comma" xfId="18"/>
-    <cellStyle name="Comma [0]" xfId="19"/>
+    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -829,805 +804,797 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="28.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="57.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="12" width="57.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="59.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="15" max="15" width="66.33203125" style="1" customWidth="1"/>
+    <col min="16" max="19" width="8.83203125" style="1"/>
+    <col min="20" max="20" width="23.6640625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="12.75">
-      <c r="A1" t="s">
+    <row r="1" spans="1:31" ht="42" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="12.75">
-      <c r="A2">
+    <row r="2" spans="1:31" ht="127" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>2475</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="P2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="R2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="12.75">
-      <c r="A3">
+    <row r="3" spans="1:31" ht="71" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2474</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="L3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="P3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="R3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="12.75">
-      <c r="A4">
+    <row r="4" spans="1:31" ht="71" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2471</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="N4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N4" t="s">
+    </row>
+    <row r="5" spans="1:31" ht="113" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2472</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="F5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" t="s">
-        <v>37</v>
-      </c>
-      <c r="X4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="R5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE4" t="s">
-        <v>68</v>
+      <c r="AE5" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="12.75">
-      <c r="A5">
-        <v>2472</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:31" ht="71" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2473</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H5" t="s">
+      <c r="N6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="O6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5" t="s">
-        <v>37</v>
-      </c>
-      <c r="X5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="R6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE5" t="s">
-        <v>79</v>
+      <c r="AE6" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="12.75">
-      <c r="A6">
-        <v>2473</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="7" spans="1:31" ht="99" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>2469</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="E7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="F7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="G7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6" t="s">
-        <v>37</v>
-      </c>
-      <c r="V6" t="s">
-        <v>37</v>
-      </c>
-      <c r="W6" t="s">
-        <v>37</v>
-      </c>
-      <c r="X6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="R7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE6" t="s">
-        <v>87</v>
+      <c r="AE7" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="12.75">
-      <c r="A7">
-        <v>2469</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="8" spans="1:31" ht="113" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2470</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="E8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" t="s">
-        <v>95</v>
-      </c>
-      <c r="N7" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="N8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U7" t="s">
-        <v>37</v>
-      </c>
-      <c r="V7" t="s">
-        <v>37</v>
-      </c>
-      <c r="W7" t="s">
-        <v>37</v>
-      </c>
-      <c r="X7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z7" t="s">
+      <c r="R8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE7" t="s">
-        <v>99</v>
+      <c r="AE8" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="12.75">
-      <c r="A8">
-        <v>2470</v>
-      </c>
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L8" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" t="s">
-        <v>95</v>
-      </c>
-      <c r="N8" t="s">
-        <v>106</v>
-      </c>
-      <c r="O8" t="s">
-        <v>67</v>
-      </c>
-      <c r="P8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8" t="s">
-        <v>37</v>
-      </c>
-      <c r="U8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" t="s">
-        <v>37</v>
-      </c>
-      <c r="W8" t="s">
-        <v>37</v>
-      </c>
-      <c r="X8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>68</v>
+    <row r="9" spans="1:31" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="9" ht="12.75">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75">
-      <c r="A11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75">
-      <c r="A12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75">
-      <c r="A13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75">
-      <c r="A14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75">
-      <c r="A15" t="s">
+    <row r="15" spans="1:31" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1639,12 +1606,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
